--- a/medicine/Enfance/Jean_Defrasne/Jean_Defrasne.xlsx
+++ b/medicine/Enfance/Jean_Defrasne/Jean_Defrasne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Defrasne (né le 27 juin 1924 à Paris 17e et mort le 17 novembre 2015 à Besançon[1]) est un résistant, universitaire, historien, homme politique et écrivain pour la jeunesse français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Defrasne (né le 27 juin 1924 à Paris 17e et mort le 17 novembre 2015 à Besançon) est un résistant, universitaire, historien, homme politique et écrivain pour la jeunesse français.
 </t>
         </is>
       </c>
@@ -513,19 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et résistance sous l'Occupation
-Jean Defrasne naît en 1924 à Paris. Son père, originaire du Haut-Doubs, est instituteur. En 1940, la famille déménage pour s'installer à Besançon où réside le grand-père de Jean, qui est horloger.
-Pendant l'Occupation nazie, Jean Defrasne rejoint la Résistance lorsqu'il s'engage à l'âge de 17 ans parmi les Volontaires de la Liberté[2].
-Carrière dans l'enseignement et à l'université
-Jean Defrasne fait ses études au lycée Henri-IV à Paris, puis intègre l'École Normale Supérieure de la rue d'Ulm. En 1947, il obtient l'agrégation d'histoire[3]. Il devient professeur au lycée Victor Hugo de Besançon. En 1967, il est affecté au lycée Pasteur, dans la même ville, en classe de lettres supérieures (classe préparatoire aux grandes écoles)[2]. Plus tard, il enseigne à la faculté de droit de Besançon (Université de Franche-Comté) jusqu'en 1986[2].
-Il publie plusieurs ouvrages d'histoire consacrés à l'Occupation, aux gauches en France, aux associations.
-Il est pendant un temps le président de l'Académie des sciences, belles-lettres et arts de Besançon et de Franche-Comté[2].
-Carrière politique
-Après avoir pris part au mouvement résistant Volontaires de la Liberté sous l'Occupation, Jean Defrasne rejoint les Jeunesses socialistes[2]. Il est le dernier secrétaire fédéral de la SFIO avant la disparition du parti en 1969, puis devient le premier secrétaire fédéral du Parti socialiste à sa création.
-En 1959, il devient adjoint au maire de Besançon, Jean Minjoz. Il conserve ce poste, adjoint de plusieurs maires successifs, jusqu'en 1989[2],[3]. En outre, Jean Defrasne préside un temps la société d’équipement du Doubs[2]. Ces responsabilités l'amènent à prendre l'initiative de nombreux travaux d'urbanisme à Besançon.
-Vie privée
-En 1946, Jean Defrasne épouse Marie-Louise. Le couple a trois enfants[2].
-Jean Defrasne meurt le 17 novembre 2015 à Besançon à l'âge de 91 ans[2].
+          <t>Jeunesse et résistance sous l'Occupation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Defrasne naît en 1924 à Paris. Son père, originaire du Haut-Doubs, est instituteur. En 1940, la famille déménage pour s'installer à Besançon où réside le grand-père de Jean, qui est horloger.
+Pendant l'Occupation nazie, Jean Defrasne rejoint la Résistance lorsqu'il s'engage à l'âge de 17 ans parmi les Volontaires de la Liberté.
 </t>
         </is>
       </c>
@@ -551,13 +558,133 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière dans l'enseignement et à l'université</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Defrasne fait ses études au lycée Henri-IV à Paris, puis intègre l'École Normale Supérieure de la rue d'Ulm. En 1947, il obtient l'agrégation d'histoire. Il devient professeur au lycée Victor Hugo de Besançon. En 1967, il est affecté au lycée Pasteur, dans la même ville, en classe de lettres supérieures (classe préparatoire aux grandes écoles). Plus tard, il enseigne à la faculté de droit de Besançon (Université de Franche-Comté) jusqu'en 1986.
+Il publie plusieurs ouvrages d'histoire consacrés à l'Occupation, aux gauches en France, aux associations.
+Il est pendant un temps le président de l'Académie des sciences, belles-lettres et arts de Besançon et de Franche-Comté.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après avoir pris part au mouvement résistant Volontaires de la Liberté sous l'Occupation, Jean Defrasne rejoint les Jeunesses socialistes. Il est le dernier secrétaire fédéral de la SFIO avant la disparition du parti en 1969, puis devient le premier secrétaire fédéral du Parti socialiste à sa création.
+En 1959, il devient adjoint au maire de Besançon, Jean Minjoz. Il conserve ce poste, adjoint de plusieurs maires successifs, jusqu'en 1989,. En outre, Jean Defrasne préside un temps la société d’équipement du Doubs. Ces responsabilités l'amènent à prendre l'initiative de nombreux travaux d'urbanisme à Besançon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1946, Jean Defrasne épouse Marie-Louise. Le couple a trois enfants.
+Jean Defrasne meurt le 17 novembre 2015 à Besançon à l'âge de 91 ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Ouvrages d'histoire
-1955 : Franche-Comté et Francs-Comtois
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Ouvrages d'histoire</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1955 : Franche-Comté et Francs-Comtois
 1962, avec Michel Laran : Histoire, le monde de 1848 à 1914, Hachette
 1972 : La gauche en France, de 1789 à nos jours, coll. « Que sais-je ? »
 1982 : Histoire de la collaboration, coll. « Que sais-je ? »
@@ -567,9 +694,43 @@
 1995 : La vie associative en France, coll. « Que sais-je ? »
 1999 : Battant, au pays des Bousbots (sur le quartier Battant à Besançon)
 2002 : Les Comtois : le pays, l'histoire, l'esprit, Cabedita, coll. « Archives vivantes »
-2004 : Histoire des associations françaises
-Ouvrages pour la jeunesse
-1951 : Contes et légendes de Franche-Comté
+2004 : Histoire des associations françaises</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Ouvrages pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1951 : Contes et légendes de Franche-Comté
 1954 : Récits tirés de l'histoire de Rome
 1956 : Contes et légendes du Berry
 1960 : Épisodes et récits de la Renaissance
@@ -581,36 +742,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Jean_Defrasne</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jean_Defrasne</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Décoration
- Chevalier de la Légion d'honneur 20 février 1999 [2]
-Récompense
-Prix Louis-Pergaud pour son livre Franche-Comté et Francs-Comtois[2].</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Décoration</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Chevalier de la Légion d'honneur 20 février 1999 </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean_Defrasne</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompense</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Prix Louis-Pergaud pour son livre Franche-Comté et Francs-Comtois.</t>
         </is>
       </c>
     </row>
